--- a/medicine/Premiers secours et secourisme/Véhicule_de_premiers_secours/Véhicule_de_premiers_secours.xlsx
+++ b/medicine/Premiers secours et secourisme/Véhicule_de_premiers_secours/Véhicule_de_premiers_secours.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_premiers_secours</t>
+          <t>Véhicule_de_premiers_secours</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un Véhicule de Premiers Secours à Personnes abrégé VPSP, encore abrégé sous le sigle VPS, est un véhicule de type VSAV utilisé par les AASC (Associations Agréées de Sécurité Civile) en France. Il contient tout le matériel de premiers secours nécessaire à la prise en charge d'une victime et / ou procéder à son évacuation vers un centre hospitalier.
 Il est fréquent d'utiliser le sigle VPS pour véhicule de premiers secours.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_premiers_secours</t>
+          <t>Véhicule_de_premiers_secours</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,16 +525,18 @@
           <t>Réglementation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Lorsqu'ils effectuent des évacuations d'urgence de personnes victimes d'accidents, de sinistres ou de catastrophes en participant aux opérations de secours ou dans le prolongement des Dispositifs Prévisionnels de Secours, les équipages et les véhicules utilisés par les Associations Agréées de Sécurité Civile répondent aux conditions prévues aux articles R. 6312-45 à R. 6312-48 du Code de la Santé Publique.
 Un arrêté du ministre de l'Intérieur 31 mai 2016  fixe les normes minimales des Véhicules de Premiers Secours à Personnes des Associations Agréées de Sécurité Civile : les Véhicules de Premiers Secours à Personnes (VPSP) des Associations Agréées de Sécurité Civile doivent répondre aux conditions minimales de la norme NF EN 1789 « Véhicules de transport sanitaire et leurs équipements - Ambulances routières » de type B.
-Les associations n’ont pas à justifier d’un agrément de transport sanitaire délivré par l’agence régionale de santé[1].
+Les associations n’ont pas à justifier d’un agrément de transport sanitaire délivré par l’agence régionale de santé.
 Les Associations Agréées de Sécurité Civile peuvent réaliser des évacuations d’urgence de victimes dans les conditions suivantes :
-Lors du déroulement d'une manifestation et dans le cadre d'un Dispositif Prévisionnel de Secours, les intervenants secouristes peuvent acheminer une victime vers un point de prise en charge, selon les deux cas de figure suivants[2]:
+Lors du déroulement d'une manifestation et dans le cadre d'un Dispositif Prévisionnel de Secours, les intervenants secouristes peuvent acheminer une victime vers un point de prise en charge, selon les deux cas de figure suivants:
 - à la demande de l'autorité médicale propre au dispositif, le cas échéant : sur le site même du DPS, sur un centre de tri...
-- à la demande du médecin régulateur du SAMU qui décide du moyen d'acheminement et du lieu d'accueil de la victime : vers un point de rencontre, vers un centre hospitalier... L'acheminement de victimes vers une structure hospitalière dans le prolongement des dispositifs prévisionnels de secours n'est autorisé que pour les associations agréées ayant conclu une convention avec le SAMU et le service d'incendie et de secours ; l’évacuation se fait sur accord du médecin régulateur du SAMU[3]. 
-dans les ressorts de la Brigade des Sapeurs-Pompiers de Paris et du Bataillon des Marins-Pompiers de Marseille, les Associations Agréées de Sécurité Civile peuvent conclure une convention avec ces services pour assurer les évacuations d'urgence de victimes[4].</t>
+- à la demande du médecin régulateur du SAMU qui décide du moyen d'acheminement et du lieu d'accueil de la victime : vers un point de rencontre, vers un centre hospitalier... L'acheminement de victimes vers une structure hospitalière dans le prolongement des dispositifs prévisionnels de secours n'est autorisé que pour les associations agréées ayant conclu une convention avec le SAMU et le service d'incendie et de secours ; l’évacuation se fait sur accord du médecin régulateur du SAMU. 
+dans les ressorts de la Brigade des Sapeurs-Pompiers de Paris et du Bataillon des Marins-Pompiers de Marseille, les Associations Agréées de Sécurité Civile peuvent conclure une convention avec ces services pour assurer les évacuations d'urgence de victimes.</t>
         </is>
       </c>
     </row>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V%C3%A9hicule_de_premiers_secours</t>
+          <t>Véhicule_de_premiers_secours</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -552,9 +566,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Signalisation
-Un véhicule de premiers secours à personnes d'une association agréée de sécurité civile est un véhicule d'intérêt général bénéficiant de facilités de passage au sens du Code de la Route[5], et est donc dotés de signaux desdits véhicules.
-Toutefois, lorsqu'il est dans le cadre d’une garde affectée à des missions de SAMU, il devient alors — temporairement — un véhicule prioritaire[6].  Il peut être doté des signaux des véhicules d'intérêt général prioritaire par le préfet.
+          <t>Signalisation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Un véhicule de premiers secours à personnes d'une association agréée de sécurité civile est un véhicule d'intérêt général bénéficiant de facilités de passage au sens du Code de la Route, et est donc dotés de signaux desdits véhicules.
+Toutefois, lorsqu'il est dans le cadre d’une garde affectée à des missions de SAMU, il devient alors — temporairement — un véhicule prioritaire.  Il peut être doté des signaux des véhicules d'intérêt général prioritaire par le préfet.
 Ainsi le véhicule peut être équipé comme suit :
 signalisation lumineuse à gyrophares, ou à flash (rampe) ;
 feux de pénétration situé dans la calandre, sur les rétroviseurs, au niveau du pare-brise… ;
@@ -565,14 +584,48 @@
 feux tournants ou clignotants orange (feux de danger) ;
 rampe à défilement (signalant l'obstacle ou la déviation) ;
 cônes de signalisation ;
-gilets de haute visibilité.
-Matériel
-Le référentiel sur les dispositifs prévisionnels de secours[7] indique (p. 65) :
+gilets de haute visibilité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Véhicule_de_premiers_secours</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_premiers_secours</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Matériel</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le référentiel sur les dispositifs prévisionnels de secours indique (p. 65) :
 « Le véhicule de premiers secours à personnes (VPSP) est une ambulance de secours et de
 soins d’urgence, au sens de la norme NF EN 1789, qui permet, le cas échéant, d’être médicalisé.
 En outre, il permet d’acheminer une victime du point où se situe celle-ci vers un poste de secours ou d’un poste de secours vers une structure hospitalière (dans ce dernier cas, ce transport ne pourra s’effectuer que sur ordre du médecin régulateur du SAMU).
 En conséquence, le véhicule destiné aux associations agréées de sécurité civile doit satisfaire aux exigences définies dans le type B de la norme NF EN 1789 et la note d’information technique (NIT) correspondante. Ses missions sont celles fixées par la réglementation en vigueur. »
-Le VPS est donc une ASSU (ambulance de secours et de soins d'urgence) et doit se conformer aux textes en vigueur[8]. 
+Le VPS est donc une ASSU (ambulance de secours et de soins d'urgence) et doit se conformer aux textes en vigueur. 
 Le matériel qu'il embarque est réglementairement similaire au matériel d'un VSAV (ambulance des pompiers). 
 Quelques matériels embarqués à bord d'un VPS :
 Sac PS (Premiers Secours), avec du matériel de soin ;
@@ -587,9 +640,43 @@
 Brancard avec son chariot ;
 Matelas immobilisateur à dépression « coquille » (MID) ;
 Extincteur ;
-Phare de recherche, cônes de Lübeck, gilets de haute visibilité, casques (de type F2).
-Équipage
-L'équipage du VPS se compose habituellement d'une équipe secouriste, ce qui correspond à :
+Phare de recherche, cônes de Lübeck, gilets de haute visibilité, casques (de type F2).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Véhicule_de_premiers_secours</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Premiers secours et secourisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/V%C3%A9hicule_de_premiers_secours</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composition</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Équipage</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'équipage du VPS se compose habituellement d'une équipe secouriste, ce qui correspond à :
 2 équipiers secouristes nécessairement PSE2, dont un chef d'équipe ;
 1 secouriste PSE2 ou PSE1.
 En Réseau de Prompt Secours
